--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_810.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_810.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d11662556-Reviews-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>63</t>
   </si>
   <si>
     <t>?</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_810.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_810.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,911 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r592032084-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>11662556</t>
+  </si>
+  <si>
+    <t>592032084</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Perfect Place to Stay if You Will be on Campus</t>
+  </si>
+  <si>
+    <t>We stayed here for graduation and it couldn't have been any easier to get around. The facility is new, so everything is very clean and modern. The lobby area is impressive but in a friendly, open and accessible way. The rooms were large, comfy and quiet. The hotel  was completely full for graduation, but everything seemed to run smoothly.If you want to have lunch or dinner at their restaurant and there is a big event like graduation going on, be sure to make reservations in advance. If you have elderly grandparents that are attending graduation, this is the best place for them to stay. It is as close as you can get to Pauley Pavilion. I booked the rooms in December for June and there were specials going on at the time. Self-parking is below the hotel and worked great. I'm just sad that my son has graduated UCLA and I won't have a reason to come back and stay in this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed here for graduation and it couldn't have been any easier to get around. The facility is new, so everything is very clean and modern. The lobby area is impressive but in a friendly, open and accessible way. The rooms were large, comfy and quiet. The hotel  was completely full for graduation, but everything seemed to run smoothly.If you want to have lunch or dinner at their restaurant and there is a big event like graduation going on, be sure to make reservations in advance. If you have elderly grandparents that are attending graduation, this is the best place for them to stay. It is as close as you can get to Pauley Pavilion. I booked the rooms in December for June and there were specials going on at the time. Self-parking is below the hotel and worked great. I'm just sad that my son has graduated UCLA and I won't have a reason to come back and stay in this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r591518974-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>591518974</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty good </t>
+  </si>
+  <si>
+    <t>Pros: 1. This is a relatively new hotel and conference center. So everything was clean and modern. 2. Parking was self park but relatively easy—they have a convenient underground garage with in/out privileges using the guest card, but it’s not cheap. 3. The check in was quick and efficient and the staff was professional. 4. The room was small but comfortable. A good quality king size  bed, plenty of outlets, and the thermostat in the room worked well! Cons: 1. In two of the mornings I was there I heard loud singing from the outside at 7A. I wasn’t sure if these were guests or staff but it was quite annoying. Another colleague who stayed a few rooms down from me heard the same thing.2. On the first day my room wasn’t made till 2P and I had to call to get that fixed. However, they took care of it right away, so this was a minor nit. This is a very convenient hotel if you plan to visit UCLA. MoreShow less</t>
+  </si>
+  <si>
+    <t>Pros: 1. This is a relatively new hotel and conference center. So everything was clean and modern. 2. Parking was self park but relatively easy—they have a convenient underground garage with in/out privileges using the guest card, but it’s not cheap. 3. The check in was quick and efficient and the staff was professional. 4. The room was small but comfortable. A good quality king size  bed, plenty of outlets, and the thermostat in the room worked well! Cons: 1. In two of the mornings I was there I heard loud singing from the outside at 7A. I wasn’t sure if these were guests or staff but it was quite annoying. Another colleague who stayed a few rooms down from me heard the same thing.2. On the first day my room wasn’t made till 2P and I had to call to get that fixed. However, they took care of it right away, so this was a minor nit. This is a very convenient hotel if you plan to visit UCLA. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r582708528-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>582708528</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>the best you can have in la</t>
+  </si>
+  <si>
+    <t>this super nice hotel which also offers discount to ucla student's parents, we stay ever time we come to visit our son there ,,the food is perfect ,even at the ucla they have many restaurants which are really excellent ,location of course very nice in west wood ,close to everywhere .i love it and will be there soon again .MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Cindy G, Director of Sales at UCLA Meyer &amp; Renee Luskin Conference Center, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>this super nice hotel which also offers discount to ucla student's parents, we stay ever time we come to visit our son there ,,the food is perfect ,even at the ucla they have many restaurants which are really excellent ,location of course very nice in west wood ,close to everywhere .i love it and will be there soon again .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r576545944-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>576545944</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great - except thin walls and weird pillows </t>
+  </si>
+  <si>
+    <t>Location is super for UCLA and I really loved this place from the moment I walked in. Beautiful garden, lovely lobby, and the room looked very nice and was generally lovely and comfortable. My only complaints are that the walls are super super thin, and I could hear the person in the next room talking very well (understood content) and then snoring all night!! That was actually quite awful because I couldn’t sleep. The pillows are also cheap and spongy and rather uncomfortable. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Location is super for UCLA and I really loved this place from the moment I walked in. Beautiful garden, lovely lobby, and the room looked very nice and was generally lovely and comfortable. My only complaints are that the walls are super super thin, and I could hear the person in the next room talking very well (understood content) and then snoring all night!! That was actually quite awful because I couldn’t sleep. The pillows are also cheap and spongy and rather uncomfortable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r574035608-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>574035608</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Perfect place to stay while visiting UCLA</t>
+  </si>
+  <si>
+    <t>This hotel is an ideal location while visiting the UCLA campus. No need to have a car, you can walk to everything you need; campus and Westwood Village are right there. The rooms are clean, well appointed and comfortable. The food in the restaurant and lounge were both delicious. We finished our tour and had a few hours to kill while waiting for our flight so we worked in the lobby. It was very comfortable and the staff was very accommodating. We won't stay anywhere else when we come to town.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is an ideal location while visiting the UCLA campus. No need to have a car, you can walk to everything you need; campus and Westwood Village are right there. The rooms are clean, well appointed and comfortable. The food in the restaurant and lounge were both delicious. We finished our tour and had a few hours to kill while waiting for our flight so we worked in the lobby. It was very comfortable and the staff was very accommodating. We won't stay anywhere else when we come to town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r562646064-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>562646064</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Place! </t>
+  </si>
+  <si>
+    <t>Work brought me here for a conference and I was very pleased with everything. The hotel room was spacious, bright and clean. The conference facilities were great and the bar and restaurant were wonderful. I would recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Work brought me here for a conference and I was very pleased with everything. The hotel room was spacious, bright and clean. The conference facilities were great and the bar and restaurant were wonderful. I would recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r538269943-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>538269943</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silly Service </t>
+  </si>
+  <si>
+    <t>Not sure what the kid running “valet” does. We were greeted with self parking instructions and no help with luggage. Check-in fine. 1 elevator for entire hotel? We did a huge amount of walking endless hotel hallways, trekking to our room and trekking back to elevator which was at opposite end of hotel. Cocktail lounge service was slow, 20 minutes for drinks to arrive and place was not packed. Asked for a late night rollaway (our ucla student decided to crash with us that night) was told you need to request that in the morning. Not always available and only housekeeping dispenses these (at an extra cost). Just weird. Rooms fine but very small. Weird, small windows. If marauders were storming the castle, I and my trusty cross bow, would have no problem returning fire from the small vertical window slits. Location wonderful, but in my opinion, not a true hotel dispensing hospitality. Rather an institution delivering institutional hospitality, whatever that is.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Cindy G, Director of Sales at UCLA Meyer &amp; Renee Luskin Conference Center, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Not sure what the kid running “valet” does. We were greeted with self parking instructions and no help with luggage. Check-in fine. 1 elevator for entire hotel? We did a huge amount of walking endless hotel hallways, trekking to our room and trekking back to elevator which was at opposite end of hotel. Cocktail lounge service was slow, 20 minutes for drinks to arrive and place was not packed. Asked for a late night rollaway (our ucla student decided to crash with us that night) was told you need to request that in the morning. Not always available and only housekeeping dispenses these (at an extra cost). Just weird. Rooms fine but very small. Weird, small windows. If marauders were storming the castle, I and my trusty cross bow, would have no problem returning fire from the small vertical window slits. Location wonderful, but in my opinion, not a true hotel dispensing hospitality. Rather an institution delivering institutional hospitality, whatever that is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r532028713-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>532028713</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Bright and Luxurious</t>
+  </si>
+  <si>
+    <t>The room was spacious, the bathroom was well designed, the coffee maker was a Keurig and the Wifi worked flawlessly!  I was there for the BLLA conference and the food was fantastic.  The restaurant and chefs present excellent choices that are healthy and tasty.  I would have rated 5 stars but at night, like a lot of hotels, the thermostat wouldn't cool the room down enough to the temperature I had set.  If I'm not cold when I sleep, I don't sleep!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Cindy G, Director of Sales at UCLA Meyer &amp; Renee Luskin Conference Center, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>The room was spacious, the bathroom was well designed, the coffee maker was a Keurig and the Wifi worked flawlessly!  I was there for the BLLA conference and the food was fantastic.  The restaurant and chefs present excellent choices that are healthy and tasty.  I would have rated 5 stars but at night, like a lot of hotels, the thermostat wouldn't cool the room down enough to the temperature I had set.  If I'm not cold when I sleep, I don't sleep!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r526530280-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>526530280</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>UCLA!!</t>
+  </si>
+  <si>
+    <t>An impressive place to stay on UCLA campus. New, clean, and friendly staff!  Interesting that they don't or cannot take tips because they are state employees, which means they are not as savvy and professional as five star staff but much more human (?).  The bar and restaurant closes at 10-11 pm depends on the day which I like because the place becomes quiet. I highly recommend this place MoreShow less</t>
+  </si>
+  <si>
+    <t>An impressive place to stay on UCLA campus. New, clean, and friendly staff!  Interesting that they don't or cannot take tips because they are state employees, which means they are not as savvy and professional as five star staff but much more human (?).  The bar and restaurant closes at 10-11 pm depends on the day which I like because the place becomes quiet. I highly recommend this place More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r509079459-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>509079459</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stay, great service</t>
+  </si>
+  <si>
+    <t>I stayed at the Luskin for 5 nights, attending a conference.  The hotel is quiet and elegant. Rooms have a minimalist modern design. Keurig coffee/tea in the room was much appreciated. I was able to sample most of the dining menu - and it was all very good.  No reason to go off-site for breakfast/lunch/dinner. The service wad excellent throughout - too bad they will not take tips. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at the Luskin for 5 nights, attending a conference.  The hotel is quiet and elegant. Rooms have a minimalist modern design. Keurig coffee/tea in the room was much appreciated. I was able to sample most of the dining menu - and it was all very good.  No reason to go off-site for breakfast/lunch/dinner. The service wad excellent throughout - too bad they will not take tips. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r507724473-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>507724473</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Truly Five Star</t>
+  </si>
+  <si>
+    <t>I spent 3 days at the Luskin Conference Center and found it to be one of the most impeccable properties I've seen in a while.  The rooms were spotless, the amenities were plentiful.  The toilets had the water flush saving option, which I liked.  I never saw an employee if they didn't have business in public view.  The lobby is a beautiful open air lobby.  The walls of the courtyard outside block away the fact you're right on the UCLA campus.  The front desk clerk came from around the counter to greet me as I walked in the door with my luggage and walked me to the desk. The food was delicious and the service in the restaurant was spot on.  The one thing I could offer on the food was that I did see some of the same items on the buffet each day -- mostly the 'salad bar' area.  That said, it didn't prevent me from eating them over and over!  The property also does not allow tipping.  As a Conference Center, you pay a Complete Meeting Package where all your Dinner and Breakfast are included in your stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>I spent 3 days at the Luskin Conference Center and found it to be one of the most impeccable properties I've seen in a while.  The rooms were spotless, the amenities were plentiful.  The toilets had the water flush saving option, which I liked.  I never saw an employee if they didn't have business in public view.  The lobby is a beautiful open air lobby.  The walls of the courtyard outside block away the fact you're right on the UCLA campus.  The front desk clerk came from around the counter to greet me as I walked in the door with my luggage and walked me to the desk. The food was delicious and the service in the restaurant was spot on.  The one thing I could offer on the food was that I did see some of the same items on the buffet each day -- mostly the 'salad bar' area.  That said, it didn't prevent me from eating them over and over!  The property also does not allow tipping.  As a Conference Center, you pay a Complete Meeting Package where all your Dinner and Breakfast are included in your stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r505234707-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>505234707</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Nice and New</t>
+  </si>
+  <si>
+    <t>As an alum I was looking forward to staying here. The hotel is nice and modern, very clean, and still smells new. The rooms are well appointed and the beds and linens are top notch and comfortable. Hotel staff was professional and accommodating. I can see this would be an excellent conference center given its amenities and proximity to UCLA- its right on campus next to Pauley Pavilion and steps away from the student store. Only a few complaints:  the restaurant looks nice and has a great outdoor patio, but breakfast was subpar. The website is a little clunky and didn't always work properly. Also, not much of a view from the rooms. All in all, a great option for staying in the UCLA/Westwood area. We will likely return in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>As an alum I was looking forward to staying here. The hotel is nice and modern, very clean, and still smells new. The rooms are well appointed and the beds and linens are top notch and comfortable. Hotel staff was professional and accommodating. I can see this would be an excellent conference center given its amenities and proximity to UCLA- its right on campus next to Pauley Pavilion and steps away from the student store. Only a few complaints:  the restaurant looks nice and has a great outdoor patio, but breakfast was subpar. The website is a little clunky and didn't always work properly. Also, not much of a view from the rooms. All in all, a great option for staying in the UCLA/Westwood area. We will likely return in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r498346781-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>498346781</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Perfect place for a conference</t>
+  </si>
+  <si>
+    <t>I attended a meeting held at the center and stayed at the hotel. The rooms were great, the staff was outstanding and the conference support was superb! The facilities are unbeatable for quality and convince.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>I attended a meeting held at the center and stayed at the hotel. The rooms were great, the staff was outstanding and the conference support was superb! The facilities are unbeatable for quality and convince.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r495072109-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>495072109</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>UCLA graduation</t>
+  </si>
+  <si>
+    <t>Great facility all around for UCLA activities.   Rooms are fine but the public space shines especially the main lobby areas.   Restaurant too is excellent.   Parking is on site and you can walk to anywhere on campus or in Westwood.   Next door to famous Pauley Pavilion.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Great facility all around for UCLA activities.   Rooms are fine but the public space shines especially the main lobby areas.   Restaurant too is excellent.   Parking is on site and you can walk to anywhere on campus or in Westwood.   Next door to famous Pauley Pavilion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r489871356-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>489871356</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Super location for UCLA visit</t>
+  </si>
+  <si>
+    <t>This is a nice place with staff that cares , good food, nice rooms and yes, great location. It is quite new, with internet.wifi and computer and printing facilities as well as all the other paraphernalia of a hotel. For some it will be pricey , although these are the prices around there for this level of hotel.  What made the difference for me was the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>This is a nice place with staff that cares , good food, nice rooms and yes, great location. It is quite new, with internet.wifi and computer and printing facilities as well as all the other paraphernalia of a hotel. For some it will be pricey , although these are the prices around there for this level of hotel.  What made the difference for me was the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r486261069-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>486261069</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t>I attended a conference here in May. This is a lovely hotel, everything seems nice and new, the rooms are clean and well appointed. Staff is friendly and helpful. Within walking distance to many restaurants and right on campus. Meeting facilities were great as well. No complaints. I would definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>I attended a conference here in May. This is a lovely hotel, everything seems nice and new, the rooms are clean and well appointed. Staff is friendly and helpful. Within walking distance to many restaurants and right on campus. Meeting facilities were great as well. No complaints. I would definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r482653272-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>482653272</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Wonderful upscale hotel!  On the UCLA campus...no tax...GREAT service</t>
+  </si>
+  <si>
+    <t>This new facility on the UCLA campus is an upscale hotel. The rooms are nice and the service is excellent.  All the taxes are included and there is NO TIPPING on property.  The restaurant on site is great and it's nice to have beautiful places to walk. Very close (walkable) to many shopping and eating destinations in Westwood.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>This new facility on the UCLA campus is an upscale hotel. The rooms are nice and the service is excellent.  All the taxes are included and there is NO TIPPING on property.  The restaurant on site is great and it's nice to have beautiful places to walk. Very close (walkable) to many shopping and eating destinations in Westwood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r481205150-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>481205150</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Great venue and great campus</t>
+  </si>
+  <si>
+    <t>I found this to be a great conference center and would highly recommend to anyone preparing a large conference.   The hotel facilities are excellent and the on site restaurant is very good.   The staff is very friendly and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>I found this to be a great conference center and would highly recommend to anyone preparing a large conference.   The hotel facilities are excellent and the on site restaurant is very good.   The staff is very friendly and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r479858257-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>479858257</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Business Conference - Loved It</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights - great stay - good rooms, great food, great conference areas.  The staff was super attentive and helpful.  The bar and outdoor areas were quite nice as well.  I would highly recommend this place for a business stay or personal if you need to be near UCLA area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights - great stay - good rooms, great food, great conference areas.  The staff was super attentive and helpful.  The bar and outdoor areas were quite nice as well.  I would highly recommend this place for a business stay or personal if you need to be near UCLA area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r479804095-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>479804095</t>
+  </si>
+  <si>
+    <t>Best location for UCLA hospital</t>
+  </si>
+  <si>
+    <t>Myself and another family member stayed here, while family had surgery at UCLA hospital.   Location was three easy blocks to the hospital, safe walking day and night.  On the university campus.  Parking on hotel site.  Beautifully appointed rooms.  Very helpful staff. I would recommend this location to anyone with business at UCLAMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Myself and another family member stayed here, while family had surgery at UCLA hospital.   Location was three easy blocks to the hospital, safe walking day and night.  On the university campus.  Parking on hotel site.  Beautifully appointed rooms.  Very helpful staff. I would recommend this location to anyone with business at UCLAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r479258173-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>479258173</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>If you have business at UCLA, this is the place to stay</t>
+  </si>
+  <si>
+    <t>I stayed at Luskin Conference Center April 2017 because I was attending a day-long conference that started at 8:30AM.  Not wanting to fight traffic and deal with parking, I stayed at Luskin the previous evening.  My experience overall was excellent.  Here are some details:
+First and foremost, the staff was wonderful and friendly.  Checking in/out was pleasant.  In the morning I went out for a run.  While I was waiting for my running partner, the front desk staff came over to talk to me.  Though I didn't spend much time interacting with the staff, the little time I did, they were all great.
+The room was clean.  The bed looked really inviting.  The bathrobe hanging.  Coffee maker with tea/coffee (including decaf) available.  Wi-Fi was easy/available, and fast enough to stream video.  USB outlets at the desk and by both sides of the bed.  Great for the modern traveler.
+Now, a bit of nostalgia: I am an alumnus.  I love UCLA.  Being able to run around campus at the start of the day, before all the students are on Bruin Walk...well, only because I stayed there.  The rooms have nice pictures of different places on campus - nice touch.
+I know some reviews talked about noise.  I personally didn't experience any.  In fact, when I opened the window/door later in the morning I realized the construction had already started on the new field/practice facility.  At least to the outside of the...I stayed at Luskin Conference Center April 2017 because I was attending a day-long conference that started at 8:30AM.  Not wanting to fight traffic and deal with parking, I stayed at Luskin the previous evening.  My experience overall was excellent.  Here are some details:First and foremost, the staff was wonderful and friendly.  Checking in/out was pleasant.  In the morning I went out for a run.  While I was waiting for my running partner, the front desk staff came over to talk to me.  Though I didn't spend much time interacting with the staff, the little time I did, they were all great.The room was clean.  The bed looked really inviting.  The bathrobe hanging.  Coffee maker with tea/coffee (including decaf) available.  Wi-Fi was easy/available, and fast enough to stream video.  USB outlets at the desk and by both sides of the bed.  Great for the modern traveler.Now, a bit of nostalgia: I am an alumnus.  I love UCLA.  Being able to run around campus at the start of the day, before all the students are on Bruin Walk...well, only because I stayed there.  The rooms have nice pictures of different places on campus - nice touch.I know some reviews talked about noise.  I personally didn't experience any.  In fact, when I opened the window/door later in the morning I realized the construction had already started on the new field/practice facility.  At least to the outside of the hotel, the noise isolation was quite good.  In terms of parking fees, I know I've stayed at hotels on Olympic where the overnight parking was just slightly less.  But in terms of rooms, Luskin was significantly better.I've tried to reserve rooms recently (for Discover Engineering and for Bruin Day, because my son was recently admitted), we weren't able to do so.  I'm sure it gets full quickly for major events.  So, my advice, if you are planning to stay there, make sure you reserve well ahead of time.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at Luskin Conference Center April 2017 because I was attending a day-long conference that started at 8:30AM.  Not wanting to fight traffic and deal with parking, I stayed at Luskin the previous evening.  My experience overall was excellent.  Here are some details:
+First and foremost, the staff was wonderful and friendly.  Checking in/out was pleasant.  In the morning I went out for a run.  While I was waiting for my running partner, the front desk staff came over to talk to me.  Though I didn't spend much time interacting with the staff, the little time I did, they were all great.
+The room was clean.  The bed looked really inviting.  The bathrobe hanging.  Coffee maker with tea/coffee (including decaf) available.  Wi-Fi was easy/available, and fast enough to stream video.  USB outlets at the desk and by both sides of the bed.  Great for the modern traveler.
+Now, a bit of nostalgia: I am an alumnus.  I love UCLA.  Being able to run around campus at the start of the day, before all the students are on Bruin Walk...well, only because I stayed there.  The rooms have nice pictures of different places on campus - nice touch.
+I know some reviews talked about noise.  I personally didn't experience any.  In fact, when I opened the window/door later in the morning I realized the construction had already started on the new field/practice facility.  At least to the outside of the...I stayed at Luskin Conference Center April 2017 because I was attending a day-long conference that started at 8:30AM.  Not wanting to fight traffic and deal with parking, I stayed at Luskin the previous evening.  My experience overall was excellent.  Here are some details:First and foremost, the staff was wonderful and friendly.  Checking in/out was pleasant.  In the morning I went out for a run.  While I was waiting for my running partner, the front desk staff came over to talk to me.  Though I didn't spend much time interacting with the staff, the little time I did, they were all great.The room was clean.  The bed looked really inviting.  The bathrobe hanging.  Coffee maker with tea/coffee (including decaf) available.  Wi-Fi was easy/available, and fast enough to stream video.  USB outlets at the desk and by both sides of the bed.  Great for the modern traveler.Now, a bit of nostalgia: I am an alumnus.  I love UCLA.  Being able to run around campus at the start of the day, before all the students are on Bruin Walk...well, only because I stayed there.  The rooms have nice pictures of different places on campus - nice touch.I know some reviews talked about noise.  I personally didn't experience any.  In fact, when I opened the window/door later in the morning I realized the construction had already started on the new field/practice facility.  At least to the outside of the hotel, the noise isolation was quite good.  In terms of parking fees, I know I've stayed at hotels on Olympic where the overnight parking was just slightly less.  But in terms of rooms, Luskin was significantly better.I've tried to reserve rooms recently (for Discover Engineering and for Bruin Day, because my son was recently admitted), we weren't able to do so.  I'm sure it gets full quickly for major events.  So, my advice, if you are planning to stay there, make sure you reserve well ahead of time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r471716381-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>471716381</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights in March this year on a short business trip. The Luskin Centre is right on the UCLA campus and about a 10-12 minute stroll from Wilshire Blvd and Westwood village where there are several bars and restaurants to chose from.  I had a twin room overlooking the terrace and football training pitch which was quite pleasant. The room itself was quiet with no traffic noise at all although I could hear the person in the room next door. Overall it was comfortable and spotlessly clean with good coffee maker although no mini-bar or fridge. Breakfast was served in the small restaurant on the ground floor. As myself and colleagues were not part of a large conference group we had to order off the breakfast menu rather than use the buffet, however that was no hardship as the selection was good and the food excellent. The staff were all very helpful and pleasant and contributed to an enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights in March this year on a short business trip. The Luskin Centre is right on the UCLA campus and about a 10-12 minute stroll from Wilshire Blvd and Westwood village where there are several bars and restaurants to chose from.  I had a twin room overlooking the terrace and football training pitch which was quite pleasant. The room itself was quiet with no traffic noise at all although I could hear the person in the room next door. Overall it was comfortable and spotlessly clean with good coffee maker although no mini-bar or fridge. Breakfast was served in the small restaurant on the ground floor. As myself and colleagues were not part of a large conference group we had to order off the breakfast menu rather than use the buffet, however that was no hardship as the selection was good and the food excellent. The staff were all very helpful and pleasant and contributed to an enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r465409402-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>465409402</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>Campus central</t>
+  </si>
+  <si>
+    <t>Right next to Pauley Pavilion, the Luskin Center has excellent full service facilities. The Meeting rooms are great, the food and drink at the Plateia were quite good and the rooms were modern and spotless. In short, this is a very campus central spot for those who have business at UCLA. As others have mentioned, the parking is outlandishly costly but anyone who has stayed in the Westwood area will know - the charges are not  that different from down on Wilshire Blvd but will promptly double your rental car daily rate and are added to the already substantial room rates for staying at the Luskin.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Right next to Pauley Pavilion, the Luskin Center has excellent full service facilities. The Meeting rooms are great, the food and drink at the Plateia were quite good and the rooms were modern and spotless. In short, this is a very campus central spot for those who have business at UCLA. As others have mentioned, the parking is outlandishly costly but anyone who has stayed in the Westwood area will know - the charges are not  that different from down on Wilshire Blvd but will promptly double your rental car daily rate and are added to the already substantial room rates for staying at the Luskin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r464659308-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>464659308</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>Overpriced Dorm Room</t>
+  </si>
+  <si>
+    <t>ProsNew, clean place to stay on UClLA campus. Staff is excellent very helpful..ConsOnly parking options are $39 per night valet parking or $28 per night garage parking which may or may not be available. If there is a basketball game or other big event on campus it is likely to be unavailable. Rooms about the size of dorm roomsNo fridgeHeat difficult to controlVery limited cable channelsUnless you absolutely must be  on campus I would not stay here. I have regularly found much nicer places in this area for considerably less than Luskin chargesMoreShow less</t>
+  </si>
+  <si>
+    <t>ProsNew, clean place to stay on UClLA campus. Staff is excellent very helpful..ConsOnly parking options are $39 per night valet parking or $28 per night garage parking which may or may not be available. If there is a basketball game or other big event on campus it is likely to be unavailable. Rooms about the size of dorm roomsNo fridgeHeat difficult to controlVery limited cable channelsUnless you absolutely must be  on campus I would not stay here. I have regularly found much nicer places in this area for considerably less than Luskin chargesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r457203897-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>457203897</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>Outstanding Hotel Experience!</t>
+  </si>
+  <si>
+    <t>We timed our West Coast trip with a symposium at UCLA that my girlfriend attended. Although we wanted to stay in LA longer, we could only get the room at the Luskin Center for the dates of the event. It's too bad you cannot reserve this hotel without being involved in a corporate meeting because it's one of the best places I have ever stayed! We were both surprised by the intricate Mediterranean gardens, abundant friendly and professional staff - students?, and the cleanliness of the property. Our room overlooked the football field where we could watch the teams practice. There were plenty of amenities including complimentary fruit, chocolate, and sparking water. The bathroom was big and bright, and the bed was comfortable. The location was decent for LA and the bar served the best old fashioned I have ever tasted - the bartender was a real pro! I felt bad that they have a no tipping policy as a school property, but they assured me the staff is compensated. Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2017</t>
+  </si>
+  <si>
+    <t>We timed our West Coast trip with a symposium at UCLA that my girlfriend attended. Although we wanted to stay in LA longer, we could only get the room at the Luskin Center for the dates of the event. It's too bad you cannot reserve this hotel without being involved in a corporate meeting because it's one of the best places I have ever stayed! We were both surprised by the intricate Mediterranean gardens, abundant friendly and professional staff - students?, and the cleanliness of the property. Our room overlooked the football field where we could watch the teams practice. There were plenty of amenities including complimentary fruit, chocolate, and sparking water. The bathroom was big and bright, and the bed was comfortable. The location was decent for LA and the bar served the best old fashioned I have ever tasted - the bartender was a real pro! I felt bad that they have a no tipping policy as a school property, but they assured me the staff is compensated. Highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r456526844-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>456526844</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Why are walls so thin</t>
+  </si>
+  <si>
+    <t>A beautiful and very comfortable hotel, with a top-quality restaurant where tipping - employers pay employees properly! Don't make them look like beggars leaving aside all dignity, like that shuttle driver who wanted at all cost to carry my small and light backpack out of the bus so he would make me feel that I must tip him for his generous help - is not even allowed. Really very good hotel, BUT I could clearly hear my neighbor snore and neighbors on the other side talk normally together. If my neighbor had been fighting or drinking - fortunately not the type of clientele - it could have been very unpleasant. The walls must be too thin, my hearing is just normal.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>A beautiful and very comfortable hotel, with a top-quality restaurant where tipping - employers pay employees properly! Don't make them look like beggars leaving aside all dignity, like that shuttle driver who wanted at all cost to carry my small and light backpack out of the bus so he would make me feel that I must tip him for his generous help - is not even allowed. Really very good hotel, BUT I could clearly hear my neighbor snore and neighbors on the other side talk normally together. If my neighbor had been fighting or drinking - fortunately not the type of clientele - it could have been very unpleasant. The walls must be too thin, my hearing is just normal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r455316035-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>455316035</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Very mixed feelings</t>
+  </si>
+  <si>
+    <t>Pros:  Great location if you need to visit UCLA, and certainly lower in price than similar quality hotels in the area.  The building is brand new, with spacious rooms.Cons:  The walls are very thin and you can easily hear people in the rooms on either side, even talking on the phone or alarm clocks, this was what pushed me over the edge.  They clearly made a lot of effort to make this building and the operation LEED certified, which was accomplished by taking away creature comforts.  The lights in the bathroom automatically come on, which means you get full light in the middle of the night if you walk in.  The shower has the same water flow as a small sailing yacht.  The rooms do not have refrigerators and the only way to get water is from the bathroom sink in a coffee mug.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pros:  Great location if you need to visit UCLA, and certainly lower in price than similar quality hotels in the area.  The building is brand new, with spacious rooms.Cons:  The walls are very thin and you can easily hear people in the rooms on either side, even talking on the phone or alarm clocks, this was what pushed me over the edge.  They clearly made a lot of effort to make this building and the operation LEED certified, which was accomplished by taking away creature comforts.  The lights in the bathroom automatically come on, which means you get full light in the middle of the night if you walk in.  The shower has the same water flow as a small sailing yacht.  The rooms do not have refrigerators and the only way to get water is from the bathroom sink in a coffee mug.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r452480574-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>452480574</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>New Conference Center is FABULOUS!</t>
+  </si>
+  <si>
+    <t>The new conference center in the heart of UCLA campus masquerades as a five star hotel. Great facilities, comfortable luxury accommodations, and fabulous food can compete easily with LA's upscale hotels.  Special kudos to the ever-present and ever-friendly staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>The new conference center in the heart of UCLA campus masquerades as a five star hotel. Great facilities, comfortable luxury accommodations, and fabulous food can compete easily with LA's upscale hotels.  Special kudos to the ever-present and ever-friendly staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r451984704-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>451984704</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Very nice and central</t>
+  </si>
+  <si>
+    <t>This is within 500 ft of Pauley Pavilion and overlooks the practice field. Service is outstanding and rooms are very nice and comfortably, albeit not huge. Prices are good. The beds are very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is within 500 ft of Pauley Pavilion and overlooks the practice field. Service is outstanding and rooms are very nice and comfortably, albeit not huge. Prices are good. The beds are very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r444083230-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>444083230</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Brand New and Great Service</t>
+  </si>
+  <si>
+    <t>Stayed at the Luskin Conference Center while attending a conference at UCLA. Center is brand new and beautifully built. The guest rooms are very modern and have all the amenities you'd want for business travel. Quite spacious too. The conference center itself is well-equipped, the staff is friendly and attentive, and the on-site restaurant has great food and service. Definitely recommended for any travel to UCLA!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at the Luskin Conference Center while attending a conference at UCLA. Center is brand new and beautifully built. The guest rooms are very modern and have all the amenities you'd want for business travel. Quite spacious too. The conference center itself is well-equipped, the staff is friendly and attentive, and the on-site restaurant has great food and service. Definitely recommended for any travel to UCLA!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r443488586-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>443488586</t>
+  </si>
+  <si>
+    <t>12/11/2016</t>
+  </si>
+  <si>
+    <t>Service on it best</t>
+  </si>
+  <si>
+    <t>From welcoming us to saying good bye, toy for my little one. There is no remark to be made, Bed where nice, shower area has space.Friendly staff, one little think of personal intrest tours around the campus promote it and develop it. Hope you enjoy your donuts.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2016</t>
+  </si>
+  <si>
+    <t>From welcoming us to saying good bye, toy for my little one. There is no remark to be made, Bed where nice, shower area has space.Friendly staff, one little think of personal intrest tours around the campus promote it and develop it. Hope you enjoy your donuts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r442173331-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>442173331</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>New fabulous UCLA conference center and hotel</t>
+  </si>
+  <si>
+    <t>I have stayed at the Luskin center three times since it opened.  What a hidden gem!  Try the restaurant if you live in the area.  Excellent food and service.  The rooms and staff are top notch with employees and staff the enjoy working there and will do anything to help their customers.  I can't wait to stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed at the Luskin center three times since it opened.  What a hidden gem!  Try the restaurant if you live in the area.  Excellent food and service.  The rooms and staff are top notch with employees and staff the enjoy working there and will do anything to help their customers.  I can't wait to stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r439138842-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>439138842</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Grand Opening Night</t>
+  </si>
+  <si>
+    <t>I stayed at the Luskin center on the Grand Opening night! I am glad that they have a way to review them on Trip Advisor now! My entire stay at the hotel was fantastic. My visit was stressful because I had never been to UCLA before and had an interview, and the staff put my anxiety at ease. They helped me identify where to get dinner (and even walk me there), suggested items from the restaurant, and then help me locate my airport ride who was lost. Also...a plus is that the tiles in the bathroom are not normal bathroom tiles that get slippery when wet. Overall, I would definitely stay here again, and I would tell my family to stay here also!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at the Luskin center on the Grand Opening night! I am glad that they have a way to review them on Trip Advisor now! My entire stay at the hotel was fantastic. My visit was stressful because I had never been to UCLA before and had an interview, and the staff put my anxiety at ease. They helped me identify where to get dinner (and even walk me there), suggested items from the restaurant, and then help me locate my airport ride who was lost. Also...a plus is that the tiles in the bathroom are not normal bathroom tiles that get slippery when wet. Overall, I would definitely stay here again, and I would tell my family to stay here also!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r436928364-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>436928364</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Nice place but wouldnt stay again</t>
+  </si>
+  <si>
+    <t>Very nice hotel.... Friendly staff, very clean rooms but they're not smoker friendly. A lot of people smoke and this is not the place for you as you have to go off campus to smoke. Showers in the room are HORRIBLE.... It took an hr just to rinse my arm off.... They put water saver shower heads on but it takes an hour to shower. Also the parking is ridiculous , 39.00/ to parkMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel.... Friendly staff, very clean rooms but they're not smoker friendly. A lot of people smoke and this is not the place for you as you have to go off campus to smoke. Showers in the room are HORRIBLE.... It took an hr just to rinse my arm off.... They put water saver shower heads on but it takes an hour to shower. Also the parking is ridiculous , 39.00/ to parkMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r436394240-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>436394240</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>Beautiful new hotel</t>
+  </si>
+  <si>
+    <t>What a great experience! Friendly professional staff from the check in desk to the dining room and everywhere in between.  The beautifully decorated lobby continues throughout the hotel.  My room was spacious with modern amenities and a comfortable bed.  The bathroom has a walk in shower without a tub, although the space is large enough to include one. Self parking is available steps away at the parking structure for $28 for overnight parking. I believe valet parking is available as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>What a great experience! Friendly professional staff from the check in desk to the dining room and everywhere in between.  The beautifully decorated lobby continues throughout the hotel.  My room was spacious with modern amenities and a comfortable bed.  The bathroom has a walk in shower without a tub, although the space is large enough to include one. Self parking is available steps away at the parking structure for $28 for overnight parking. I believe valet parking is available as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r435979702-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>435979702</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Beautiful contemporary hotel inside UCLA</t>
+  </si>
+  <si>
+    <t>I only have good things to say about Luskin - new and contemporary design, polite and friendly staff, clean rooms. They observe a "no-tipping" policy which means that any good service that was given was genuine. I would like to commend all the front desk staff plus Arnold and Dorchay of Bell Service for their excellent attitude which always makes visiting Luskin/UCLA a pleasure. Each floor had an ice and vending machine which makes buying water very convenient. They have an excellent on-site restaurant Plateia. It is also easy to visit UCLA Ackerman Union shops across the street (a short walking distance) for fast food, stationery, books, computer related items and a small supermarket. Luskin is also a short walk from Westwood Village where there is a good selection of restaurants and shops such as City Target, Ralph's, Trader Joe's etc.Overall would most definitely recommend this hotel to anyone visiting UCLA.MoreShow less</t>
+  </si>
+  <si>
+    <t>I only have good things to say about Luskin - new and contemporary design, polite and friendly staff, clean rooms. They observe a "no-tipping" policy which means that any good service that was given was genuine. I would like to commend all the front desk staff plus Arnold and Dorchay of Bell Service for their excellent attitude which always makes visiting Luskin/UCLA a pleasure. Each floor had an ice and vending machine which makes buying water very convenient. They have an excellent on-site restaurant Plateia. It is also easy to visit UCLA Ackerman Union shops across the street (a short walking distance) for fast food, stationery, books, computer related items and a small supermarket. Luskin is also a short walk from Westwood Village where there is a good selection of restaurants and shops such as City Target, Ralph's, Trader Joe's etc.Overall would most definitely recommend this hotel to anyone visiting UCLA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r431658347-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>431658347</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>New and modern property, such good restaurant</t>
+  </si>
+  <si>
+    <t>While visiting UCLA, I had a chance to see the new lodging at the Luskin Center.  The lobby is spacious with lots of sitting areas to meet others and a counter to use a laptop.  There is a nearby parking structure (#8) and valet parking.  The rooms are efficient with a table, chair, bed and walk in shower.  Coffee is in the room.  Rooms are well thought out. The staff in the lobby at the reception desk are very helpful.  We ate lunch at the inside restaurant, Plateia.  Upscale food and very good service. The menu is on-line if you want to review it before leaving home and the servings are big. There is also a bar.  We liked the pizza, chicken BLT, mussels and french fries in duck fat. Our server, Ariel, was professional and nice, making sure our orders were exactly right.  The Luskin Center has alot to offer and right on campus.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>While visiting UCLA, I had a chance to see the new lodging at the Luskin Center.  The lobby is spacious with lots of sitting areas to meet others and a counter to use a laptop.  There is a nearby parking structure (#8) and valet parking.  The rooms are efficient with a table, chair, bed and walk in shower.  Coffee is in the room.  Rooms are well thought out. The staff in the lobby at the reception desk are very helpful.  We ate lunch at the inside restaurant, Plateia.  Upscale food and very good service. The menu is on-line if you want to review it before leaving home and the servings are big. There is also a bar.  We liked the pizza, chicken BLT, mussels and french fries in duck fat. Our server, Ariel, was professional and nice, making sure our orders were exactly right.  The Luskin Center has alot to offer and right on campus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r430743449-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>430743449</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>nice rooms, comfy bed</t>
+  </si>
+  <si>
+    <t>this is a new hotel and the rooms are very nice. the bed was wonderful. i ate in the restaurant and the food was very good and reasonably priced. staff is very helpful and a free shuttle bus for the ucla campus is provided. the bathroom was nice, and the mirror is wonderful for putting on make-up. the only suggestion i have for improvement would be a mini fridge and microwave.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>this is a new hotel and the rooms are very nice. the bed was wonderful. i ate in the restaurant and the food was very good and reasonably priced. staff is very helpful and a free shuttle bus for the ucla campus is provided. the bathroom was nice, and the mirror is wonderful for putting on make-up. the only suggestion i have for improvement would be a mini fridge and microwave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r424745679-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>424745679</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Lovely, Accomodating Conference Center!</t>
+  </si>
+  <si>
+    <t>Hotel &amp; Conference Center on the campus of UCLA.  Brand new!!  Beautiful hotel, excellent conference center.  Very friendly, helpful staff.  Great amenities &amp; location.  Highly recommend!!  Keep up the good work!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel &amp; Conference Center on the campus of UCLA.  Brand new!!  Beautiful hotel, excellent conference center.  Very friendly, helpful staff.  Great amenities &amp; location.  Highly recommend!!  Keep up the good work!!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1553,2507 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>67</v>
+      </c>
+      <c r="X7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>165</v>
+      </c>
+      <c r="X17" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>165</v>
+      </c>
+      <c r="X18" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>180</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>187</v>
+      </c>
+      <c r="X20" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>200</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>187</v>
+      </c>
+      <c r="X21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>187</v>
+      </c>
+      <c r="X22" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>200</v>
+      </c>
+      <c r="O23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>213</v>
+      </c>
+      <c r="X23" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>217</v>
+      </c>
+      <c r="J24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s">
+        <v>219</v>
+      </c>
+      <c r="L24" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>221</v>
+      </c>
+      <c r="X24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>213</v>
+      </c>
+      <c r="X25" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>129</v>
+      </c>
+      <c r="O26" t="s">
+        <v>235</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>236</v>
+      </c>
+      <c r="X26" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>244</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>244</v>
+      </c>
+      <c r="O28" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>236</v>
+      </c>
+      <c r="X28" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>257</v>
+      </c>
+      <c r="X29" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>260</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>261</v>
+      </c>
+      <c r="J30" t="s">
+        <v>262</v>
+      </c>
+      <c r="K30" t="s">
+        <v>263</v>
+      </c>
+      <c r="L30" t="s">
+        <v>264</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>257</v>
+      </c>
+      <c r="X30" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>164</v>
+      </c>
+      <c r="O31" t="s">
+        <v>76</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>271</v>
+      </c>
+      <c r="X31" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>274</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K32" t="s">
+        <v>277</v>
+      </c>
+      <c r="L32" t="s">
+        <v>278</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>164</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>279</v>
+      </c>
+      <c r="X32" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>283</v>
+      </c>
+      <c r="J33" t="s">
+        <v>284</v>
+      </c>
+      <c r="K33" t="s">
+        <v>285</v>
+      </c>
+      <c r="L33" t="s">
+        <v>286</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>164</v>
+      </c>
+      <c r="O33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>287</v>
+      </c>
+      <c r="X33" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" t="s">
+        <v>292</v>
+      </c>
+      <c r="K34" t="s">
+        <v>293</v>
+      </c>
+      <c r="L34" t="s">
+        <v>294</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>295</v>
+      </c>
+      <c r="O34" t="s">
+        <v>76</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>296</v>
+      </c>
+      <c r="X34" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>299</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>300</v>
+      </c>
+      <c r="J35" t="s">
+        <v>301</v>
+      </c>
+      <c r="K35" t="s">
+        <v>302</v>
+      </c>
+      <c r="L35" t="s">
+        <v>303</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>129</v>
+      </c>
+      <c r="O35" t="s">
+        <v>304</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>305</v>
+      </c>
+      <c r="X35" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" t="s">
+        <v>310</v>
+      </c>
+      <c r="K36" t="s">
+        <v>311</v>
+      </c>
+      <c r="L36" t="s">
+        <v>312</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>295</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>305</v>
+      </c>
+      <c r="X36" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J37" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37" t="s">
+        <v>317</v>
+      </c>
+      <c r="L37" t="s">
+        <v>318</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>295</v>
+      </c>
+      <c r="O37" t="s">
+        <v>235</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>305</v>
+      </c>
+      <c r="X37" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>321</v>
+      </c>
+      <c r="J38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" t="s">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s">
+        <v>324</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>295</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>325</v>
+      </c>
+      <c r="X38" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>295</v>
+      </c>
+      <c r="O39" t="s">
+        <v>333</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>334</v>
+      </c>
+      <c r="X39" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>66205</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>337</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>338</v>
+      </c>
+      <c r="J40" t="s">
+        <v>339</v>
+      </c>
+      <c r="K40" t="s">
+        <v>340</v>
+      </c>
+      <c r="L40" t="s">
+        <v>341</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>295</v>
+      </c>
+      <c r="O40" t="s">
+        <v>76</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>334</v>
+      </c>
+      <c r="X40" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_810.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_810.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>UCLABruin84-87</t>
+  </si>
+  <si>
     <t>07/13/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>We stayed here for graduation and it couldn't have been any easier to get around. The facility is new, so everything is very clean and modern. The lobby area is impressive but in a friendly, open and accessible way. The rooms were large, comfy and quiet. The hotel  was completely full for graduation, but everything seemed to run smoothly.If you want to have lunch or dinner at their restaurant and there is a big event like graduation going on, be sure to make reservations in advance. If you have elderly grandparents that are attending graduation, this is the best place for them to stay. It is as close as you can get to Pauley Pavilion. I booked the rooms in December for June and there were specials going on at the time. Self-parking is below the hotel and worked great. I'm just sad that my son has graduated UCLA and I won't have a reason to come back and stay in this hotel.More</t>
   </si>
   <si>
+    <t>Ness S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r591518974-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>Pros: 1. This is a relatively new hotel and conference center. So everything was clean and modern. 2. Parking was self park but relatively easy—they have a convenient underground garage with in/out privileges using the guest card, but it’s not cheap. 3. The check in was quick and efficient and the staff was professional. 4. The room was small but comfortable. A good quality king size  bed, plenty of outlets, and the thermostat in the room worked well! Cons: 1. In two of the mornings I was there I heard loud singing from the outside at 7A. I wasn’t sure if these were guests or staff but it was quite annoying. Another colleague who stayed a few rooms down from me heard the same thing.2. On the first day my room wasn’t made till 2P and I had to call to get that fixed. However, they took care of it right away, so this was a minor nit. This is a very convenient hotel if you plan to visit UCLA. More</t>
   </si>
   <si>
+    <t>Hesham H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r582708528-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>this super nice hotel which also offers discount to ucla student's parents, we stay ever time we come to visit our son there ,,the food is perfect ,even at the ucla they have many restaurants which are really excellent ,location of course very nice in west wood ,close to everywhere .i love it and will be there soon again .More</t>
   </si>
   <si>
+    <t>xody r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r576545944-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>Location is super for UCLA and I really loved this place from the moment I walked in. Beautiful garden, lovely lobby, and the room looked very nice and was generally lovely and comfortable. My only complaints are that the walls are super super thin, and I could hear the person in the next room talking very well (understood content) and then snoring all night!! That was actually quite awful because I couldn’t sleep. The pillows are also cheap and spongy and rather uncomfortable. More</t>
   </si>
   <si>
+    <t>Karri L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r574035608-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>This hotel is an ideal location while visiting the UCLA campus. No need to have a car, you can walk to everything you need; campus and Westwood Village are right there. The rooms are clean, well appointed and comfortable. The food in the restaurant and lounge were both delicious. We finished our tour and had a few hours to kill while waiting for our flight so we worked in the lobby. It was very comfortable and the staff was very accommodating. We won't stay anywhere else when we come to town.More</t>
   </si>
   <si>
+    <t>Paul C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r562646064-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>Work brought me here for a conference and I was very pleased with everything. The hotel room was spacious, bright and clean. The conference facilities were great and the bar and restaurant were wonderful. I would recommend. More</t>
   </si>
   <si>
+    <t>trippin7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r538269943-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -318,6 +339,9 @@
     <t>Not sure what the kid running “valet” does. We were greeted with self parking instructions and no help with luggage. Check-in fine. 1 elevator for entire hotel? We did a huge amount of walking endless hotel hallways, trekking to our room and trekking back to elevator which was at opposite end of hotel. Cocktail lounge service was slow, 20 minutes for drinks to arrive and place was not packed. Asked for a late night rollaway (our ucla student decided to crash with us that night) was told you need to request that in the morning. Not always available and only housekeeping dispenses these (at an extra cost). Just weird. Rooms fine but very small. Weird, small windows. If marauders were storming the castle, I and my trusty cross bow, would have no problem returning fire from the small vertical window slits. Location wonderful, but in my opinion, not a true hotel dispensing hospitality. Rather an institution delivering institutional hospitality, whatever that is.More</t>
   </si>
   <si>
+    <t>Rick F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r532028713-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>The room was spacious, the bathroom was well designed, the coffee maker was a Keurig and the Wifi worked flawlessly!  I was there for the BLLA conference and the food was fantastic.  The restaurant and chefs present excellent choices that are healthy and tasty.  I would have rated 5 stars but at night, like a lot of hotels, the thermostat wouldn't cool the room down enough to the temperature I had set.  If I'm not cold when I sleep, I don't sleep!More</t>
   </si>
   <si>
+    <t>Johanna K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r526530280-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -363,6 +390,9 @@
     <t>An impressive place to stay on UCLA campus. New, clean, and friendly staff!  Interesting that they don't or cannot take tips because they are state employees, which means they are not as savvy and professional as five star staff but much more human (?).  The bar and restaurant closes at 10-11 pm depends on the day which I like because the place becomes quiet. I highly recommend this place More</t>
   </si>
   <si>
+    <t>OF-YVR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r509079459-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -390,6 +420,9 @@
     <t>I stayed at the Luskin for 5 nights, attending a conference.  The hotel is quiet and elegant. Rooms have a minimalist modern design. Keurig coffee/tea in the room was much appreciated. I was able to sample most of the dining menu - and it was all very good.  No reason to go off-site for breakfast/lunch/dinner. The service wad excellent throughout - too bad they will not take tips. More</t>
   </si>
   <si>
+    <t>ProTravelCritic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r507724473-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -417,6 +450,9 @@
     <t>I spent 3 days at the Luskin Conference Center and found it to be one of the most impeccable properties I've seen in a while.  The rooms were spotless, the amenities were plentiful.  The toilets had the water flush saving option, which I liked.  I never saw an employee if they didn't have business in public view.  The lobby is a beautiful open air lobby.  The walls of the courtyard outside block away the fact you're right on the UCLA campus.  The front desk clerk came from around the counter to greet me as I walked in the door with my luggage and walked me to the desk. The food was delicious and the service in the restaurant was spot on.  The one thing I could offer on the food was that I did see some of the same items on the buffet each day -- mostly the 'salad bar' area.  That said, it didn't prevent me from eating them over and over!  The property also does not allow tipping.  As a Conference Center, you pay a Complete Meeting Package where all your Dinner and Breakfast are included in your stay.More</t>
   </si>
   <si>
+    <t>Andrew L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r505234707-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -444,6 +480,9 @@
     <t>As an alum I was looking forward to staying here. The hotel is nice and modern, very clean, and still smells new. The rooms are well appointed and the beds and linens are top notch and comfortable. Hotel staff was professional and accommodating. I can see this would be an excellent conference center given its amenities and proximity to UCLA- its right on campus next to Pauley Pavilion and steps away from the student store. Only a few complaints:  the restaurant looks nice and has a great outdoor patio, but breakfast was subpar. The website is a little clunky and didn't always work properly. Also, not much of a view from the rooms. All in all, a great option for staying in the UCLA/Westwood area. We will likely return in the future. More</t>
   </si>
   <si>
+    <t>SBK12014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r498346781-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -471,6 +510,9 @@
     <t>I attended a meeting held at the center and stayed at the hotel. The rooms were great, the staff was outstanding and the conference support was superb! The facilities are unbeatable for quality and convince.More</t>
   </si>
   <si>
+    <t>Mark S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r495072109-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -495,6 +537,9 @@
     <t>Great facility all around for UCLA activities.   Rooms are fine but the public space shines especially the main lobby areas.   Restaurant too is excellent.   Parking is on site and you can walk to anywhere on campus or in Westwood.   Next door to famous Pauley Pavilion.More</t>
   </si>
   <si>
+    <t>vughtenaar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r489871356-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -522,6 +567,9 @@
     <t>This is a nice place with staff that cares , good food, nice rooms and yes, great location. It is quite new, with internet.wifi and computer and printing facilities as well as all the other paraphernalia of a hotel. For some it will be pricey , although these are the prices around there for this level of hotel.  What made the difference for me was the staff.More</t>
   </si>
   <si>
+    <t>deedeeg123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r486261069-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -543,6 +591,9 @@
     <t>I attended a conference here in May. This is a lovely hotel, everything seems nice and new, the rooms are clean and well appointed. Staff is friendly and helpful. Within walking distance to many restaurants and right on campus. Meeting facilities were great as well. No complaints. I would definitely recommend.More</t>
   </si>
   <si>
+    <t>Kesslane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r482653272-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -564,6 +615,9 @@
     <t>This new facility on the UCLA campus is an upscale hotel. The rooms are nice and the service is excellent.  All the taxes are included and there is NO TIPPING on property.  The restaurant on site is great and it's nice to have beautiful places to walk. Very close (walkable) to many shopping and eating destinations in Westwood.More</t>
   </si>
   <si>
+    <t>Mike B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r481205150-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -588,6 +642,9 @@
     <t>I found this to be a great conference center and would highly recommend to anyone preparing a large conference.   The hotel facilities are excellent and the on site restaurant is very good.   The staff is very friendly and accommodating.More</t>
   </si>
   <si>
+    <t>AngusRodrigo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r479858257-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -606,6 +663,9 @@
     <t>Stayed here for 3 nights - great stay - good rooms, great food, great conference areas.  The staff was super attentive and helpful.  The bar and outdoor areas were quite nice as well.  I would highly recommend this place for a business stay or personal if you need to be near UCLA area.More</t>
   </si>
   <si>
+    <t>Diane W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r479804095-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -622,6 +682,9 @@
   </si>
   <si>
     <t>Myself and another family member stayed here, while family had surgery at UCLA hospital.   Location was three easy blocks to the hospital, safe walking day and night.  On the university campus.  Parking on hotel site.  Beautifully appointed rooms.  Very helpful staff. I would recommend this location to anyone with business at UCLAMore</t>
+  </si>
+  <si>
+    <t>SimonSanDiegoCA</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r479258173-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
@@ -650,6 +713,9 @@
 I know some reviews talked about noise.  I personally didn't experience any.  In fact, when I opened the window/door later in the morning I realized the construction had already started on the new field/practice facility.  At least to the outside of the...I stayed at Luskin Conference Center April 2017 because I was attending a day-long conference that started at 8:30AM.  Not wanting to fight traffic and deal with parking, I stayed at Luskin the previous evening.  My experience overall was excellent.  Here are some details:First and foremost, the staff was wonderful and friendly.  Checking in/out was pleasant.  In the morning I went out for a run.  While I was waiting for my running partner, the front desk staff came over to talk to me.  Though I didn't spend much time interacting with the staff, the little time I did, they were all great.The room was clean.  The bed looked really inviting.  The bathrobe hanging.  Coffee maker with tea/coffee (including decaf) available.  Wi-Fi was easy/available, and fast enough to stream video.  USB outlets at the desk and by both sides of the bed.  Great for the modern traveler.Now, a bit of nostalgia: I am an alumnus.  I love UCLA.  Being able to run around campus at the start of the day, before all the students are on Bruin Walk...well, only because I stayed there.  The rooms have nice pictures of different places on campus - nice touch.I know some reviews talked about noise.  I personally didn't experience any.  In fact, when I opened the window/door later in the morning I realized the construction had already started on the new field/practice facility.  At least to the outside of the hotel, the noise isolation was quite good.  In terms of parking fees, I know I've stayed at hotels on Olympic where the overnight parking was just slightly less.  But in terms of rooms, Luskin was significantly better.I've tried to reserve rooms recently (for Discover Engineering and for Bruin Day, because my son was recently admitted), we weren't able to do so.  I'm sure it gets full quickly for major events.  So, my advice, if you are planning to stay there, make sure you reserve well ahead of time.More</t>
   </si>
   <si>
+    <t>Adrian C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r471716381-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -674,6 +740,9 @@
     <t>I stayed here for 2 nights in March this year on a short business trip. The Luskin Centre is right on the UCLA campus and about a 10-12 minute stroll from Wilshire Blvd and Westwood village where there are several bars and restaurants to chose from.  I had a twin room overlooking the terrace and football training pitch which was quite pleasant. The room itself was quiet with no traffic noise at all although I could hear the person in the room next door. Overall it was comfortable and spotlessly clean with good coffee maker although no mini-bar or fridge. Breakfast was served in the small restaurant on the ground floor. As myself and colleagues were not part of a large conference group we had to order off the breakfast menu rather than use the buffet, however that was no hardship as the selection was good and the food excellent. The staff were all very helpful and pleasant and contributed to an enjoyable stay.More</t>
   </si>
   <si>
+    <t>Mike A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r465409402-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -698,6 +767,9 @@
     <t>Right next to Pauley Pavilion, the Luskin Center has excellent full service facilities. The Meeting rooms are great, the food and drink at the Plateia were quite good and the rooms were modern and spotless. In short, this is a very campus central spot for those who have business at UCLA. As others have mentioned, the parking is outlandishly costly but anyone who has stayed in the Westwood area will know - the charges are not  that different from down on Wilshire Blvd but will promptly double your rental car daily rate and are added to the already substantial room rates for staying at the Luskin.More</t>
   </si>
   <si>
+    <t>shoobedo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r464659308-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -716,6 +788,9 @@
     <t>ProsNew, clean place to stay on UClLA campus. Staff is excellent very helpful..ConsOnly parking options are $39 per night valet parking or $28 per night garage parking which may or may not be available. If there is a basketball game or other big event on campus it is likely to be unavailable. Rooms about the size of dorm roomsNo fridgeHeat difficult to controlVery limited cable channelsUnless you absolutely must be  on campus I would not stay here. I have regularly found much nicer places in this area for considerably less than Luskin chargesMore</t>
   </si>
   <si>
+    <t>iancarney2006</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r457203897-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -743,6 +818,9 @@
     <t>We timed our West Coast trip with a symposium at UCLA that my girlfriend attended. Although we wanted to stay in LA longer, we could only get the room at the Luskin Center for the dates of the event. It's too bad you cannot reserve this hotel without being involved in a corporate meeting because it's one of the best places I have ever stayed! We were both surprised by the intricate Mediterranean gardens, abundant friendly and professional staff - students?, and the cleanliness of the property. Our room overlooked the football field where we could watch the teams practice. There were plenty of amenities including complimentary fruit, chocolate, and sparking water. The bathroom was big and bright, and the bed was comfortable. The location was decent for LA and the bar served the best old fashioned I have ever tasted - the bartender was a real pro! I felt bad that they have a no tipping policy as a school property, but they assured me the staff is compensated. Highly recommend.More</t>
   </si>
   <si>
+    <t>Daniel G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r456526844-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -764,6 +842,9 @@
     <t>A beautiful and very comfortable hotel, with a top-quality restaurant where tipping - employers pay employees properly! Don't make them look like beggars leaving aside all dignity, like that shuttle driver who wanted at all cost to carry my small and light backpack out of the bus so he would make me feel that I must tip him for his generous help - is not even allowed. Really very good hotel, BUT I could clearly hear my neighbor snore and neighbors on the other side talk normally together. If my neighbor had been fighting or drinking - fortunately not the type of clientele - it could have been very unpleasant. The walls must be too thin, my hearing is just normal.More</t>
   </si>
   <si>
+    <t>507Wanderlust</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r455316035-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -782,6 +863,9 @@
     <t>Pros:  Great location if you need to visit UCLA, and certainly lower in price than similar quality hotels in the area.  The building is brand new, with spacious rooms.Cons:  The walls are very thin and you can easily hear people in the rooms on either side, even talking on the phone or alarm clocks, this was what pushed me over the edge.  They clearly made a lot of effort to make this building and the operation LEED certified, which was accomplished by taking away creature comforts.  The lights in the bathroom automatically come on, which means you get full light in the middle of the night if you walk in.  The shower has the same water flow as a small sailing yacht.  The rooms do not have refrigerators and the only way to get water is from the bathroom sink in a coffee mug.More</t>
   </si>
   <si>
+    <t>eheyman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r452480574-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -806,6 +890,9 @@
     <t>The new conference center in the heart of UCLA campus masquerades as a five star hotel. Great facilities, comfortable luxury accommodations, and fabulous food can compete easily with LA's upscale hotels.  Special kudos to the ever-present and ever-friendly staff!More</t>
   </si>
   <si>
+    <t>James W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r451984704-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -824,6 +911,9 @@
     <t>This is within 500 ft of Pauley Pavilion and overlooks the practice field. Service is outstanding and rooms are very nice and comfortably, albeit not huge. Prices are good. The beds are very comfortable.More</t>
   </si>
   <si>
+    <t>katemmalo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r444083230-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -848,6 +938,9 @@
     <t>Stayed at the Luskin Conference Center while attending a conference at UCLA. Center is brand new and beautifully built. The guest rooms are very modern and have all the amenities you'd want for business travel. Quite spacious too. The conference center itself is well-equipped, the staff is friendly and attentive, and the on-site restaurant has great food and service. Definitely recommended for any travel to UCLA!More</t>
   </si>
   <si>
+    <t>MonoJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r443488586-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -872,6 +965,9 @@
     <t>From welcoming us to saying good bye, toy for my little one. There is no remark to be made, Bed where nice, shower area has space.Friendly staff, one little think of personal intrest tours around the campus promote it and develop it. Hope you enjoy your donuts.More</t>
   </si>
   <si>
+    <t>psmeier94065</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r442173331-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -896,6 +992,9 @@
     <t>I have stayed at the Luskin center three times since it opened.  What a hidden gem!  Try the restaurant if you live in the area.  Excellent food and service.  The rooms and staff are top notch with employees and staff the enjoy working there and will do anything to help their customers.  I can't wait to stay again.More</t>
   </si>
   <si>
+    <t>wanderlustgal01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r439138842-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -923,6 +1022,9 @@
     <t>I stayed at the Luskin center on the Grand Opening night! I am glad that they have a way to review them on Trip Advisor now! My entire stay at the hotel was fantastic. My visit was stressful because I had never been to UCLA before and had an interview, and the staff put my anxiety at ease. They helped me identify where to get dinner (and even walk me there), suggested items from the restaurant, and then help me locate my airport ride who was lost. Also...a plus is that the tiles in the bathroom are not normal bathroom tiles that get slippery when wet. Overall, I would definitely stay here again, and I would tell my family to stay here also!More</t>
   </si>
   <si>
+    <t>aaronpL464WK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r436928364-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -950,6 +1052,9 @@
     <t>Very nice hotel.... Friendly staff, very clean rooms but they're not smoker friendly. A lot of people smoke and this is not the place for you as you have to go off campus to smoke. Showers in the room are HORRIBLE.... It took an hr just to rinse my arm off.... They put water saver shower heads on but it takes an hour to shower. Also the parking is ridiculous , 39.00/ to parkMore</t>
   </si>
   <si>
+    <t>Thrilled_2_Travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r436394240-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -968,6 +1073,9 @@
     <t>What a great experience! Friendly professional staff from the check in desk to the dining room and everywhere in between.  The beautifully decorated lobby continues throughout the hotel.  My room was spacious with modern amenities and a comfortable bed.  The bathroom has a walk in shower without a tub, although the space is large enough to include one. Self parking is available steps away at the parking structure for $28 for overnight parking. I believe valet parking is available as well.More</t>
   </si>
   <si>
+    <t>eat1226</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r435979702-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -986,6 +1094,9 @@
     <t>I only have good things to say about Luskin - new and contemporary design, polite and friendly staff, clean rooms. They observe a "no-tipping" policy which means that any good service that was given was genuine. I would like to commend all the front desk staff plus Arnold and Dorchay of Bell Service for their excellent attitude which always makes visiting Luskin/UCLA a pleasure. Each floor had an ice and vending machine which makes buying water very convenient. They have an excellent on-site restaurant Plateia. It is also easy to visit UCLA Ackerman Union shops across the street (a short walking distance) for fast food, stationery, books, computer related items and a small supermarket. Luskin is also a short walk from Westwood Village where there is a good selection of restaurants and shops such as City Target, Ralph's, Trader Joe's etc.Overall would most definitely recommend this hotel to anyone visiting UCLA.More</t>
   </si>
   <si>
+    <t>travelcookie_7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r431658347-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1010,6 +1121,9 @@
     <t>While visiting UCLA, I had a chance to see the new lodging at the Luskin Center.  The lobby is spacious with lots of sitting areas to meet others and a counter to use a laptop.  There is a nearby parking structure (#8) and valet parking.  The rooms are efficient with a table, chair, bed and walk in shower.  Coffee is in the room.  Rooms are well thought out. The staff in the lobby at the reception desk are very helpful.  We ate lunch at the inside restaurant, Plateia.  Upscale food and very good service. The menu is on-line if you want to review it before leaving home and the servings are big. There is also a bar.  We liked the pizza, chicken BLT, mussels and french fries in duck fat. Our server, Ariel, was professional and nice, making sure our orders were exactly right.  The Luskin Center has alot to offer and right on campus.More</t>
   </si>
   <si>
+    <t>flammingred39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r430743449-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1035,6 +1149,9 @@
   </si>
   <si>
     <t>this is a new hotel and the rooms are very nice. the bed was wonderful. i ate in the restaurant and the food was very good and reasonably priced. staff is very helpful and a free shuttle bus for the ucla campus is provided. the bathroom was nice, and the mirror is wonderful for putting on make-up. the only suggestion i have for improvement would be a mini fridge and microwave.More</t>
+  </si>
+  <si>
+    <t>wish2trvl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11662556-r424745679-UCLA_Meyer_Renee_Luskin_Conference_Center-Los_Angeles_California.html</t>
@@ -1557,43 +1674,47 @@
       <c r="A2" t="n">
         <v>66205</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1611,41 +1732,45 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66205</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
@@ -1664,50 +1789,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66205</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1725,56 +1854,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66205</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1786,56 +1919,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66205</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>75</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1853,56 +1990,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66205</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1914,56 +2055,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66205</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1975,56 +2120,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66205</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2040,47 +2189,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66205</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
@@ -2097,56 +2250,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66205</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2158,56 +2315,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66205</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2225,56 +2386,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66205</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2286,56 +2451,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66205</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2353,56 +2522,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66205</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2414,56 +2587,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66205</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2481,56 +2658,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66205</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2548,56 +2729,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="X17" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66205</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2613,56 +2798,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="X18" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66205</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2680,56 +2869,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66205</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2741,56 +2934,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66205</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2802,56 +2999,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X21" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66205</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>222</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="O22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -2867,56 +3068,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X22" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66205</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2934,56 +3139,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="X23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="Y23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66205</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>238</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="J24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>220</v>
       </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>200</v>
-      </c>
       <c r="O24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3001,56 +3210,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="X24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66205</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>247</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="K25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3066,56 +3279,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="X25" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66205</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>254</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3133,56 +3350,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="X26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="Y26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66205</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="J27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3202,50 +3423,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66205</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>272</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3257,56 +3482,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="X28" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="Y28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66205</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>279</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3324,47 +3553,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="Y29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>66205</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>288</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="K30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -3381,56 +3614,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="X30" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66205</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>295</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3446,56 +3683,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="X31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="Y31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>66205</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="J32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="K32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3513,56 +3754,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="X32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="Y32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66205</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>313</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="J33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="K33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O33" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -3580,56 +3825,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="X33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="Y33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66205</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>322</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="J34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="K34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="O34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3647,56 +3896,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="X34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="Y34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>66205</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>332</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="J35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="K35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="P35" t="n">
         <v>2</v>
@@ -3714,56 +3967,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="X35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="Y35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66205</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>342</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="J36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="K36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3779,56 +4036,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="X36" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="Y36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>66205</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>349</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="J37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="K37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="L37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -3846,56 +4107,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="X37" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="Y37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>66205</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>356</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="J38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="K38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="L38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -3913,56 +4178,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="X38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="Y38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>66205</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>365</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="J39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="K39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="L39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="O39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -3978,56 +4247,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="X39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="Y39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>66205</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>375</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="J40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="K40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="L40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="O40" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4045,13 +4318,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="X40" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="Y40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
